--- a/TestData/Qualification.xlsx
+++ b/TestData/Qualification.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="9215" windowHeight="9720" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9707" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>${com_text}</t>
   </si>
@@ -73,11 +73,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -680,9 +681,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1064,7 +1068,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -1089,11 +1093,11 @@
       <c r="A2" s="1">
         <v>4011</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
+      <c r="B2" s="2">
+        <v>45424</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45472</v>
       </c>
     </row>
   </sheetData>
